--- a/data/Visualisasi Metpen.xlsx
+++ b/data/Visualisasi Metpen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KS\Semester 5\metpen\metpen\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4354CCE7-804D-4D3D-BBBE-8B3B97ED87D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0413FE6-6A95-4054-B544-4B914125A118}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="53">
   <si>
     <t>Provinsi</t>
   </si>
@@ -177,12 +177,15 @@
   <si>
     <t>Tingkat Pengangguran Terbuka (Persen)</t>
   </si>
+  <si>
+    <t>UMR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -212,6 +215,23 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -233,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -256,11 +276,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -299,6 +334,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,10 +658,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA341"/>
+  <dimension ref="A1:AA375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3780,14 +3822,10 @@
         <v>37</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="10">
-        <v>0</v>
-      </c>
+      <c r="D44" s="10"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
+      <c r="G44" s="10"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="7">
@@ -3844,14 +3882,10 @@
         <v>37</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="10">
-        <v>0</v>
-      </c>
+      <c r="D45" s="10"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="10">
-        <v>0</v>
-      </c>
+      <c r="G45" s="10"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="7"/>
@@ -4226,14 +4260,10 @@
         <v>37</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
+      <c r="D51" s="10"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="10">
-        <v>0</v>
-      </c>
+      <c r="G51" s="10"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="7">
@@ -4738,14 +4768,10 @@
         <v>37</v>
       </c>
       <c r="C59" s="9"/>
-      <c r="D59" s="10">
-        <v>0</v>
-      </c>
+      <c r="D59" s="10"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
+      <c r="G59" s="10"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="7"/>
@@ -5038,14 +5064,10 @@
         <v>37</v>
       </c>
       <c r="C64" s="9"/>
-      <c r="D64" s="10">
-        <v>0</v>
-      </c>
+      <c r="D64" s="10"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="10">
-        <v>0</v>
-      </c>
+      <c r="G64" s="10"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="7">
@@ -5102,14 +5124,10 @@
         <v>37</v>
       </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="10">
-        <v>0</v>
-      </c>
+      <c r="D65" s="10"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="10">
-        <v>0</v>
-      </c>
+      <c r="G65" s="10"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="7"/>
@@ -5228,14 +5246,10 @@
         <v>37</v>
       </c>
       <c r="C67" s="9"/>
-      <c r="D67" s="10">
-        <v>0</v>
-      </c>
+      <c r="D67" s="10"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="10">
-        <v>0</v>
-      </c>
+      <c r="G67" s="10"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="7">
@@ -5292,14 +5306,10 @@
         <v>37</v>
       </c>
       <c r="C68" s="9"/>
-      <c r="D68" s="10">
-        <v>0</v>
-      </c>
+      <c r="D68" s="10"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="10">
-        <v>0</v>
-      </c>
+      <c r="G68" s="10"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="7"/>
@@ -8959,12 +8969,24 @@
       <c r="P127" s="16"/>
       <c r="Q127" s="16"/>
       <c r="S127" s="16"/>
-      <c r="T127" s="16"/>
-      <c r="U127" s="16"/>
-      <c r="V127" s="16"/>
-      <c r="W127" s="16"/>
-      <c r="X127" s="16"/>
-      <c r="Y127" s="16"/>
+      <c r="T127" s="16">
+        <v>572506</v>
+      </c>
+      <c r="U127" s="16">
+        <v>594974</v>
+      </c>
+      <c r="V127" s="16">
+        <v>618208</v>
+      </c>
+      <c r="W127" s="16">
+        <v>641936</v>
+      </c>
+      <c r="X127" s="16">
+        <v>666333</v>
+      </c>
+      <c r="Y127" s="16">
+        <v>691058</v>
+      </c>
     </row>
     <row r="128" spans="1:25" ht="15">
       <c r="A128" s="1" t="s">
@@ -19214,7 +19236,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="12.75">
+    <row r="341" spans="1:24" ht="13.5" thickBot="1">
       <c r="A341" s="1" t="s">
         <v>36</v>
       </c>
@@ -19273,7 +19295,2228 @@
         <v>3050</v>
       </c>
     </row>
+    <row r="342" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A342" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B342" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E342" s="22">
+        <v>128000</v>
+      </c>
+      <c r="F342" s="22">
+        <v>147000</v>
+      </c>
+      <c r="G342" s="22">
+        <v>171000</v>
+      </c>
+      <c r="H342" s="22">
+        <v>265000</v>
+      </c>
+      <c r="I342" s="22">
+        <v>300000</v>
+      </c>
+      <c r="J342" s="22">
+        <v>330000</v>
+      </c>
+      <c r="K342" s="22">
+        <v>425000</v>
+      </c>
+      <c r="L342" s="22">
+        <v>550000</v>
+      </c>
+      <c r="M342" s="22">
+        <v>620000</v>
+      </c>
+      <c r="N342" s="22">
+        <v>820000</v>
+      </c>
+      <c r="O342" s="22">
+        <v>850000</v>
+      </c>
+      <c r="P342" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="Q342" s="22">
+        <v>1200000</v>
+      </c>
+      <c r="R342" s="22">
+        <v>1300000</v>
+      </c>
+      <c r="S342" s="22">
+        <v>1350000</v>
+      </c>
+      <c r="T342" s="22">
+        <v>1400000</v>
+      </c>
+      <c r="U342" s="22">
+        <v>1550000</v>
+      </c>
+      <c r="V342" s="22">
+        <v>1750000</v>
+      </c>
+      <c r="W342" s="22">
+        <v>1900000</v>
+      </c>
+      <c r="X342" s="22">
+        <v>2118500</v>
+      </c>
+    </row>
+    <row r="343" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A343" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B343" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E343" s="22">
+        <v>151000</v>
+      </c>
+      <c r="F343" s="22">
+        <v>174000</v>
+      </c>
+      <c r="G343" s="22">
+        <v>210000</v>
+      </c>
+      <c r="H343" s="22">
+        <v>254000</v>
+      </c>
+      <c r="I343" s="22">
+        <v>340500</v>
+      </c>
+      <c r="J343" s="22">
+        <v>464000</v>
+      </c>
+      <c r="K343" s="22">
+        <v>505000</v>
+      </c>
+      <c r="L343" s="22">
+        <v>537000</v>
+      </c>
+      <c r="M343" s="22">
+        <v>600000</v>
+      </c>
+      <c r="N343" s="22">
+        <v>737794</v>
+      </c>
+      <c r="O343" s="22">
+        <v>761000</v>
+      </c>
+      <c r="P343" s="22">
+        <v>822205</v>
+      </c>
+      <c r="Q343" s="22">
+        <v>905000</v>
+      </c>
+      <c r="R343" s="22">
+        <v>965000</v>
+      </c>
+      <c r="S343" s="22">
+        <v>1035500</v>
+      </c>
+      <c r="T343" s="22">
+        <v>1200000</v>
+      </c>
+      <c r="U343" s="22">
+        <v>1375000</v>
+      </c>
+      <c r="V343" s="22">
+        <v>1505850</v>
+      </c>
+      <c r="W343" s="22">
+        <v>1625000</v>
+      </c>
+      <c r="X343" s="22">
+        <v>1811875</v>
+      </c>
+    </row>
+    <row r="344" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A344" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E344" s="22">
+        <v>119000</v>
+      </c>
+      <c r="F344" s="22">
+        <v>137000</v>
+      </c>
+      <c r="G344" s="22">
+        <v>160000</v>
+      </c>
+      <c r="H344" s="22">
+        <v>200000</v>
+      </c>
+      <c r="I344" s="22">
+        <v>250000</v>
+      </c>
+      <c r="J344" s="22">
+        <v>385000</v>
+      </c>
+      <c r="K344" s="22">
+        <v>435000</v>
+      </c>
+      <c r="L344" s="22">
+        <v>480000</v>
+      </c>
+      <c r="M344" s="22">
+        <v>540000</v>
+      </c>
+      <c r="N344" s="22">
+        <v>650000</v>
+      </c>
+      <c r="O344" s="22">
+        <v>725000</v>
+      </c>
+      <c r="P344" s="22">
+        <v>800000</v>
+      </c>
+      <c r="Q344" s="22">
+        <v>880000</v>
+      </c>
+      <c r="R344" s="22">
+        <v>940000</v>
+      </c>
+      <c r="S344" s="22">
+        <v>1055000</v>
+      </c>
+      <c r="T344" s="22">
+        <v>1150000</v>
+      </c>
+      <c r="U344" s="22">
+        <v>1350000</v>
+      </c>
+      <c r="V344" s="22">
+        <v>1490000</v>
+      </c>
+      <c r="W344" s="22">
+        <v>1615000</v>
+      </c>
+      <c r="X344" s="22">
+        <v>1800725</v>
+      </c>
+    </row>
+    <row r="345" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A345" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B345" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E345" s="22">
+        <v>151500</v>
+      </c>
+      <c r="F345" s="22">
+        <v>174000</v>
+      </c>
+      <c r="G345" s="22">
+        <v>218000</v>
+      </c>
+      <c r="H345" s="22">
+        <v>250700</v>
+      </c>
+      <c r="I345" s="22">
+        <v>329000</v>
+      </c>
+      <c r="J345" s="22">
+        <v>394000</v>
+      </c>
+      <c r="K345" s="22">
+        <v>437500</v>
+      </c>
+      <c r="L345" s="22">
+        <v>476900</v>
+      </c>
+      <c r="M345" s="22">
+        <v>551500</v>
+      </c>
+      <c r="N345" s="22">
+        <v>637000</v>
+      </c>
+      <c r="O345" s="22">
+        <v>710000</v>
+      </c>
+      <c r="P345" s="22">
+        <v>800000</v>
+      </c>
+      <c r="Q345" s="22">
+        <v>901600</v>
+      </c>
+      <c r="R345" s="22">
+        <v>1016000</v>
+      </c>
+      <c r="S345" s="22">
+        <v>1120000</v>
+      </c>
+      <c r="T345" s="22">
+        <v>1238000</v>
+      </c>
+      <c r="U345" s="22">
+        <v>1400000</v>
+      </c>
+      <c r="V345" s="22">
+        <v>1700000</v>
+      </c>
+      <c r="W345" s="22">
+        <v>1878000</v>
+      </c>
+      <c r="X345" s="22">
+        <v>2095000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A346" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E346" s="22">
+        <v>119500</v>
+      </c>
+      <c r="F346" s="22">
+        <v>137500</v>
+      </c>
+      <c r="G346" s="22">
+        <v>150000</v>
+      </c>
+      <c r="H346" s="22">
+        <v>173000</v>
+      </c>
+      <c r="I346" s="22">
+        <v>245000</v>
+      </c>
+      <c r="J346" s="22">
+        <v>304000</v>
+      </c>
+      <c r="K346" s="22">
+        <v>390000</v>
+      </c>
+      <c r="L346" s="22">
+        <v>425000</v>
+      </c>
+      <c r="M346" s="22">
+        <v>485000</v>
+      </c>
+      <c r="N346" s="22">
+        <v>563000</v>
+      </c>
+      <c r="O346" s="22">
+        <v>658000</v>
+      </c>
+      <c r="P346" s="22">
+        <v>724000</v>
+      </c>
+      <c r="Q346" s="22">
+        <v>800000</v>
+      </c>
+      <c r="R346" s="22">
+        <v>900000</v>
+      </c>
+      <c r="S346" s="22">
+        <v>1028000</v>
+      </c>
+      <c r="T346" s="22">
+        <v>1142500</v>
+      </c>
+      <c r="U346" s="22">
+        <v>1300000</v>
+      </c>
+      <c r="V346" s="22">
+        <v>1502300</v>
+      </c>
+      <c r="W346" s="22">
+        <v>1710000</v>
+      </c>
+      <c r="X346" s="22">
+        <v>1906650</v>
+      </c>
+    </row>
+    <row r="347" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A347" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B347" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E347" s="22">
+        <v>127500</v>
+      </c>
+      <c r="F347" s="22">
+        <v>146500</v>
+      </c>
+      <c r="G347" s="22">
+        <v>170000</v>
+      </c>
+      <c r="H347" s="22">
+        <v>190000</v>
+      </c>
+      <c r="I347" s="22">
+        <v>255000</v>
+      </c>
+      <c r="J347" s="22">
+        <v>331500</v>
+      </c>
+      <c r="K347" s="22">
+        <v>403500</v>
+      </c>
+      <c r="L347" s="22">
+        <v>460000</v>
+      </c>
+      <c r="M347" s="22">
+        <v>503700</v>
+      </c>
+      <c r="N347" s="22">
+        <v>604000</v>
+      </c>
+      <c r="O347" s="22">
+        <v>662000</v>
+      </c>
+      <c r="P347" s="22">
+        <v>743000</v>
+      </c>
+      <c r="Q347" s="22">
+        <v>824730</v>
+      </c>
+      <c r="R347" s="22">
+        <v>927825</v>
+      </c>
+      <c r="S347" s="22">
+        <v>1048440</v>
+      </c>
+      <c r="T347" s="22">
+        <v>1195220</v>
+      </c>
+      <c r="U347" s="22">
+        <v>1630000</v>
+      </c>
+      <c r="V347" s="22">
+        <v>1825000</v>
+      </c>
+      <c r="W347" s="22">
+        <v>1974346</v>
+      </c>
+      <c r="X347" s="22">
+        <v>2206000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A348" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B348" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E348" s="22">
+        <v>127500</v>
+      </c>
+      <c r="F348" s="22">
+        <v>146500</v>
+      </c>
+      <c r="G348" s="22">
+        <v>150000</v>
+      </c>
+      <c r="H348" s="22">
+        <v>173000</v>
+      </c>
+      <c r="I348" s="22">
+        <v>240000</v>
+      </c>
+      <c r="J348" s="22">
+        <v>295000</v>
+      </c>
+      <c r="K348" s="22">
+        <v>330000</v>
+      </c>
+      <c r="L348" s="22">
+        <v>363000</v>
+      </c>
+      <c r="M348" s="22">
+        <v>430000</v>
+      </c>
+      <c r="N348" s="22">
+        <v>516000</v>
+      </c>
+      <c r="O348" s="22">
+        <v>644838</v>
+      </c>
+      <c r="P348" s="22">
+        <v>690000</v>
+      </c>
+      <c r="Q348" s="22">
+        <v>735000</v>
+      </c>
+      <c r="R348" s="22">
+        <v>780000</v>
+      </c>
+      <c r="S348" s="22">
+        <v>815000</v>
+      </c>
+      <c r="T348" s="22">
+        <v>930000</v>
+      </c>
+      <c r="U348" s="22">
+        <v>1200000</v>
+      </c>
+      <c r="V348" s="22">
+        <v>1350000</v>
+      </c>
+      <c r="W348" s="22">
+        <v>1500000</v>
+      </c>
+      <c r="X348" s="22">
+        <v>1605000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A349" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E349" s="22">
+        <v>126000</v>
+      </c>
+      <c r="F349" s="22">
+        <v>145000</v>
+      </c>
+      <c r="G349" s="22">
+        <v>160000</v>
+      </c>
+      <c r="H349" s="22">
+        <v>192000</v>
+      </c>
+      <c r="I349" s="22">
+        <v>240000</v>
+      </c>
+      <c r="J349" s="22">
+        <v>310000</v>
+      </c>
+      <c r="K349" s="22">
+        <v>350000</v>
+      </c>
+      <c r="L349" s="22">
+        <v>377500</v>
+      </c>
+      <c r="M349" s="22">
+        <v>405000</v>
+      </c>
+      <c r="N349" s="22">
+        <v>505000</v>
+      </c>
+      <c r="O349" s="22">
+        <v>555000</v>
+      </c>
+      <c r="P349" s="22">
+        <v>617000</v>
+      </c>
+      <c r="Q349" s="22">
+        <v>691000</v>
+      </c>
+      <c r="R349" s="22">
+        <v>767500</v>
+      </c>
+      <c r="S349" s="22">
+        <v>855000</v>
+      </c>
+      <c r="T349" s="22">
+        <v>975000</v>
+      </c>
+      <c r="U349" s="22">
+        <v>1150000</v>
+      </c>
+      <c r="V349" s="22">
+        <v>1399037</v>
+      </c>
+      <c r="W349" s="22">
+        <v>1581000</v>
+      </c>
+      <c r="X349" s="22">
+        <v>1763000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A350" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B350" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E350" s="23"/>
+      <c r="F350" s="22">
+        <v>146500</v>
+      </c>
+      <c r="G350" s="22">
+        <v>170000</v>
+      </c>
+      <c r="H350" s="22">
+        <v>190000</v>
+      </c>
+      <c r="I350" s="22">
+        <v>255000</v>
+      </c>
+      <c r="J350" s="22">
+        <v>345000</v>
+      </c>
+      <c r="K350" s="22">
+        <v>379500</v>
+      </c>
+      <c r="L350" s="22">
+        <v>447900</v>
+      </c>
+      <c r="M350" s="22">
+        <v>560000</v>
+      </c>
+      <c r="N350" s="22">
+        <v>640000</v>
+      </c>
+      <c r="O350" s="22">
+        <v>720000</v>
+      </c>
+      <c r="P350" s="22">
+        <v>813000</v>
+      </c>
+      <c r="Q350" s="22">
+        <v>850000</v>
+      </c>
+      <c r="R350" s="22">
+        <v>910000</v>
+      </c>
+      <c r="S350" s="22">
+        <v>1024000</v>
+      </c>
+      <c r="T350" s="22">
+        <v>1110000</v>
+      </c>
+      <c r="U350" s="22">
+        <v>1265000</v>
+      </c>
+      <c r="V350" s="22">
+        <v>1640000</v>
+      </c>
+      <c r="W350" s="22">
+        <v>2100000</v>
+      </c>
+      <c r="X350" s="22">
+        <v>2341500</v>
+      </c>
+    </row>
+    <row r="351" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A351" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B351" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E351" s="22">
+        <v>235000</v>
+      </c>
+      <c r="F351" s="22">
+        <v>174000</v>
+      </c>
+      <c r="G351" s="22">
+        <v>218000</v>
+      </c>
+      <c r="H351" s="22">
+        <v>300000</v>
+      </c>
+      <c r="I351" s="22">
+        <v>421500</v>
+      </c>
+      <c r="J351" s="23"/>
+      <c r="K351" s="23"/>
+      <c r="L351" s="23"/>
+      <c r="M351" s="22">
+        <v>557000</v>
+      </c>
+      <c r="N351" s="22">
+        <v>760000</v>
+      </c>
+      <c r="O351" s="22">
+        <v>805000</v>
+      </c>
+      <c r="P351" s="22">
+        <v>833000</v>
+      </c>
+      <c r="Q351" s="22">
+        <v>892000</v>
+      </c>
+      <c r="R351" s="22">
+        <v>925000</v>
+      </c>
+      <c r="S351" s="22">
+        <v>975000</v>
+      </c>
+      <c r="T351" s="22">
+        <v>1015000</v>
+      </c>
+      <c r="U351" s="22">
+        <v>1365087</v>
+      </c>
+      <c r="V351" s="22">
+        <v>1665000</v>
+      </c>
+      <c r="W351" s="22">
+        <v>1954000</v>
+      </c>
+      <c r="X351" s="22">
+        <v>2178710</v>
+      </c>
+    </row>
+    <row r="352" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A352" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B352" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E352" s="22">
+        <v>172500</v>
+      </c>
+      <c r="F352" s="22">
+        <v>198500</v>
+      </c>
+      <c r="G352" s="22">
+        <v>231000</v>
+      </c>
+      <c r="H352" s="22">
+        <v>286000</v>
+      </c>
+      <c r="I352" s="22">
+        <v>426300</v>
+      </c>
+      <c r="J352" s="22">
+        <v>591300</v>
+      </c>
+      <c r="K352" s="22">
+        <v>631600</v>
+      </c>
+      <c r="L352" s="22">
+        <v>671600</v>
+      </c>
+      <c r="M352" s="22">
+        <v>711843</v>
+      </c>
+      <c r="N352" s="22">
+        <v>819100</v>
+      </c>
+      <c r="O352" s="22">
+        <v>900560</v>
+      </c>
+      <c r="P352" s="22">
+        <v>972604</v>
+      </c>
+      <c r="Q352" s="22">
+        <v>1069865</v>
+      </c>
+      <c r="R352" s="22">
+        <v>1118009</v>
+      </c>
+      <c r="S352" s="22">
+        <v>1290000</v>
+      </c>
+      <c r="T352" s="22">
+        <v>1529150</v>
+      </c>
+      <c r="U352" s="22">
+        <v>2200000</v>
+      </c>
+      <c r="V352" s="22">
+        <v>2441000</v>
+      </c>
+      <c r="W352" s="22">
+        <v>2700000</v>
+      </c>
+      <c r="X352" s="22">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A353" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B353" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E353" s="22">
+        <v>172500</v>
+      </c>
+      <c r="F353" s="22">
+        <v>176800</v>
+      </c>
+      <c r="G353" s="22">
+        <v>208800</v>
+      </c>
+      <c r="H353" s="22">
+        <v>230000</v>
+      </c>
+      <c r="I353" s="22">
+        <v>245000</v>
+      </c>
+      <c r="J353" s="22">
+        <v>280800</v>
+      </c>
+      <c r="K353" s="22">
+        <v>320000</v>
+      </c>
+      <c r="L353" s="22">
+        <v>366500</v>
+      </c>
+      <c r="M353" s="22">
+        <v>408260</v>
+      </c>
+      <c r="N353" s="22">
+        <v>447654</v>
+      </c>
+      <c r="O353" s="22">
+        <v>516840</v>
+      </c>
+      <c r="P353" s="22">
+        <v>568193</v>
+      </c>
+      <c r="Q353" s="22">
+        <v>628191</v>
+      </c>
+      <c r="R353" s="22">
+        <v>671500</v>
+      </c>
+      <c r="S353" s="22">
+        <v>732000</v>
+      </c>
+      <c r="T353" s="22">
+        <v>780000</v>
+      </c>
+      <c r="U353" s="22">
+        <v>850000</v>
+      </c>
+      <c r="V353" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="W353" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="X353" s="22">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A354" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B354" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E354" s="22">
+        <v>113000</v>
+      </c>
+      <c r="F354" s="22">
+        <v>130000</v>
+      </c>
+      <c r="G354" s="22">
+        <v>153000</v>
+      </c>
+      <c r="H354" s="22">
+        <v>185000</v>
+      </c>
+      <c r="I354" s="22">
+        <v>245000</v>
+      </c>
+      <c r="J354" s="22">
+        <v>314500</v>
+      </c>
+      <c r="K354" s="22">
+        <v>340400</v>
+      </c>
+      <c r="L354" s="22">
+        <v>365000</v>
+      </c>
+      <c r="M354" s="22">
+        <v>390000</v>
+      </c>
+      <c r="N354" s="22">
+        <v>450000</v>
+      </c>
+      <c r="O354" s="22">
+        <v>500000</v>
+      </c>
+      <c r="P354" s="22">
+        <v>547000</v>
+      </c>
+      <c r="Q354" s="22">
+        <v>575000</v>
+      </c>
+      <c r="R354" s="22">
+        <v>660000</v>
+      </c>
+      <c r="S354" s="22">
+        <v>675000</v>
+      </c>
+      <c r="T354" s="22">
+        <v>765000</v>
+      </c>
+      <c r="U354" s="22">
+        <v>830000</v>
+      </c>
+      <c r="V354" s="22">
+        <v>910000</v>
+      </c>
+      <c r="W354" s="22">
+        <v>910000</v>
+      </c>
+      <c r="X354" s="23"/>
+    </row>
+    <row r="355" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A355" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B355" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E355" s="22">
+        <v>106500</v>
+      </c>
+      <c r="F355" s="22">
+        <v>122500</v>
+      </c>
+      <c r="G355" s="22">
+        <v>130000</v>
+      </c>
+      <c r="H355" s="22">
+        <v>194500</v>
+      </c>
+      <c r="I355" s="22">
+        <v>237500</v>
+      </c>
+      <c r="J355" s="22">
+        <v>321800</v>
+      </c>
+      <c r="K355" s="22">
+        <v>360000</v>
+      </c>
+      <c r="L355" s="22">
+        <v>365000</v>
+      </c>
+      <c r="M355" s="22">
+        <v>400000</v>
+      </c>
+      <c r="N355" s="22">
+        <v>460000</v>
+      </c>
+      <c r="O355" s="22">
+        <v>500000</v>
+      </c>
+      <c r="P355" s="22">
+        <v>586000</v>
+      </c>
+      <c r="Q355" s="22">
+        <v>700000</v>
+      </c>
+      <c r="R355" s="22">
+        <v>745694</v>
+      </c>
+      <c r="S355" s="22">
+        <v>808000</v>
+      </c>
+      <c r="T355" s="22">
+        <v>892660</v>
+      </c>
+      <c r="U355" s="22">
+        <v>947114</v>
+      </c>
+      <c r="V355" s="22">
+        <v>988500</v>
+      </c>
+      <c r="W355" s="22">
+        <v>988500</v>
+      </c>
+      <c r="X355" s="23"/>
+    </row>
+    <row r="356" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A356" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B356" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E356" s="22">
+        <v>132500</v>
+      </c>
+      <c r="F356" s="22">
+        <v>143000</v>
+      </c>
+      <c r="G356" s="22">
+        <v>170500</v>
+      </c>
+      <c r="H356" s="22">
+        <v>214500</v>
+      </c>
+      <c r="I356" s="22">
+        <v>220000</v>
+      </c>
+      <c r="J356" s="22">
+        <v>245000</v>
+      </c>
+      <c r="K356" s="22">
+        <v>274000</v>
+      </c>
+      <c r="L356" s="22">
+        <v>310000</v>
+      </c>
+      <c r="M356" s="22">
+        <v>340000</v>
+      </c>
+      <c r="N356" s="22">
+        <v>390000</v>
+      </c>
+      <c r="O356" s="22">
+        <v>448500</v>
+      </c>
+      <c r="P356" s="22">
+        <v>500000</v>
+      </c>
+      <c r="Q356" s="22">
+        <v>570000</v>
+      </c>
+      <c r="R356" s="22">
+        <v>630000</v>
+      </c>
+      <c r="S356" s="22">
+        <v>705000</v>
+      </c>
+      <c r="T356" s="22">
+        <v>745000</v>
+      </c>
+      <c r="U356" s="22">
+        <v>866250</v>
+      </c>
+      <c r="V356" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="W356" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="X356" s="23"/>
+    </row>
+    <row r="357" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A357" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B357" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E357" s="23"/>
+      <c r="F357" s="22">
+        <v>176800</v>
+      </c>
+      <c r="G357" s="22">
+        <v>208800</v>
+      </c>
+      <c r="H357" s="22">
+        <v>230000</v>
+      </c>
+      <c r="I357" s="22">
+        <v>245000</v>
+      </c>
+      <c r="J357" s="22">
+        <v>360000</v>
+      </c>
+      <c r="K357" s="22">
+        <v>475000</v>
+      </c>
+      <c r="L357" s="22">
+        <v>515000</v>
+      </c>
+      <c r="M357" s="22">
+        <v>585000</v>
+      </c>
+      <c r="N357" s="22">
+        <v>661613</v>
+      </c>
+      <c r="O357" s="22">
+        <v>746500</v>
+      </c>
+      <c r="P357" s="22">
+        <v>837000</v>
+      </c>
+      <c r="Q357" s="22">
+        <v>917500</v>
+      </c>
+      <c r="R357" s="22">
+        <v>955300</v>
+      </c>
+      <c r="S357" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="T357" s="22">
+        <v>1042000</v>
+      </c>
+      <c r="U357" s="22">
+        <v>1170000</v>
+      </c>
+      <c r="V357" s="22">
+        <v>1325000</v>
+      </c>
+      <c r="W357" s="22">
+        <v>1600000</v>
+      </c>
+      <c r="X357" s="22">
+        <v>1784000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A358" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B358" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E358" s="22">
+        <v>141500</v>
+      </c>
+      <c r="F358" s="22">
+        <v>162500</v>
+      </c>
+      <c r="G358" s="22">
+        <v>187000</v>
+      </c>
+      <c r="H358" s="22">
+        <v>214000</v>
+      </c>
+      <c r="I358" s="22">
+        <v>309800</v>
+      </c>
+      <c r="J358" s="22">
+        <v>341000</v>
+      </c>
+      <c r="K358" s="22">
+        <v>410000</v>
+      </c>
+      <c r="L358" s="22">
+        <v>425000</v>
+      </c>
+      <c r="M358" s="22">
+        <v>447500</v>
+      </c>
+      <c r="N358" s="22">
+        <v>510000</v>
+      </c>
+      <c r="O358" s="22">
+        <v>622000</v>
+      </c>
+      <c r="P358" s="22">
+        <v>682650</v>
+      </c>
+      <c r="Q358" s="22">
+        <v>760000</v>
+      </c>
+      <c r="R358" s="22">
+        <v>829316</v>
+      </c>
+      <c r="S358" s="22">
+        <v>890000</v>
+      </c>
+      <c r="T358" s="22">
+        <v>967500</v>
+      </c>
+      <c r="U358" s="22">
+        <v>1181000</v>
+      </c>
+      <c r="V358" s="22">
+        <v>1542600</v>
+      </c>
+      <c r="W358" s="22">
+        <v>1621172</v>
+      </c>
+      <c r="X358" s="22">
+        <v>1807600</v>
+      </c>
+    </row>
+    <row r="359" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A359" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B359" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E359" s="22">
+        <v>108000</v>
+      </c>
+      <c r="F359" s="22">
+        <v>124000</v>
+      </c>
+      <c r="G359" s="22">
+        <v>145000</v>
+      </c>
+      <c r="H359" s="22">
+        <v>180000</v>
+      </c>
+      <c r="I359" s="22">
+        <v>240000</v>
+      </c>
+      <c r="J359" s="22">
+        <v>320000</v>
+      </c>
+      <c r="K359" s="22">
+        <v>375000</v>
+      </c>
+      <c r="L359" s="22">
+        <v>412500</v>
+      </c>
+      <c r="M359" s="22">
+        <v>475000</v>
+      </c>
+      <c r="N359" s="22">
+        <v>550000</v>
+      </c>
+      <c r="O359" s="22">
+        <v>645000</v>
+      </c>
+      <c r="P359" s="22">
+        <v>730000</v>
+      </c>
+      <c r="Q359" s="22">
+        <v>832500</v>
+      </c>
+      <c r="R359" s="22">
+        <v>890775</v>
+      </c>
+      <c r="S359" s="22">
+        <v>950000</v>
+      </c>
+      <c r="T359" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="U359" s="22">
+        <v>1100000</v>
+      </c>
+      <c r="V359" s="22">
+        <v>1210000</v>
+      </c>
+      <c r="W359" s="22">
+        <v>1330000</v>
+      </c>
+      <c r="X359" s="22">
+        <v>1482950</v>
+      </c>
+    </row>
+    <row r="360" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A360" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B360" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E360" s="22">
+        <v>106000</v>
+      </c>
+      <c r="F360" s="22">
+        <v>122500</v>
+      </c>
+      <c r="G360" s="22">
+        <v>143000</v>
+      </c>
+      <c r="H360" s="22">
+        <v>184000</v>
+      </c>
+      <c r="I360" s="22">
+        <v>275000</v>
+      </c>
+      <c r="J360" s="22">
+        <v>330000</v>
+      </c>
+      <c r="K360" s="22">
+        <v>350000</v>
+      </c>
+      <c r="L360" s="22">
+        <v>400000</v>
+      </c>
+      <c r="M360" s="22">
+        <v>450000</v>
+      </c>
+      <c r="N360" s="22">
+        <v>550000</v>
+      </c>
+      <c r="O360" s="22">
+        <v>600000</v>
+      </c>
+      <c r="P360" s="22">
+        <v>650000</v>
+      </c>
+      <c r="Q360" s="22">
+        <v>725000</v>
+      </c>
+      <c r="R360" s="22">
+        <v>800000</v>
+      </c>
+      <c r="S360" s="22">
+        <v>850000</v>
+      </c>
+      <c r="T360" s="22">
+        <v>925000</v>
+      </c>
+      <c r="U360" s="22">
+        <v>1010000</v>
+      </c>
+      <c r="V360" s="22">
+        <v>1150000</v>
+      </c>
+      <c r="W360" s="22">
+        <v>1250000</v>
+      </c>
+      <c r="X360" s="22">
+        <v>1425000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A361" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B361" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E361" s="22">
+        <v>126500</v>
+      </c>
+      <c r="F361" s="22">
+        <v>145500</v>
+      </c>
+      <c r="G361" s="22">
+        <v>175000</v>
+      </c>
+      <c r="H361" s="22">
+        <v>228000</v>
+      </c>
+      <c r="I361" s="22">
+        <v>304500</v>
+      </c>
+      <c r="J361" s="22">
+        <v>380000</v>
+      </c>
+      <c r="K361" s="22">
+        <v>400000</v>
+      </c>
+      <c r="L361" s="22">
+        <v>420000</v>
+      </c>
+      <c r="M361" s="22">
+        <v>445200</v>
+      </c>
+      <c r="N361" s="22">
+        <v>512000</v>
+      </c>
+      <c r="O361" s="22">
+        <v>560000</v>
+      </c>
+      <c r="P361" s="22">
+        <v>645000</v>
+      </c>
+      <c r="Q361" s="22">
+        <v>705000</v>
+      </c>
+      <c r="R361" s="22">
+        <v>741000</v>
+      </c>
+      <c r="S361" s="22">
+        <v>802500</v>
+      </c>
+      <c r="T361" s="22">
+        <v>900000</v>
+      </c>
+      <c r="U361" s="22">
+        <v>1060000</v>
+      </c>
+      <c r="V361" s="22">
+        <v>1380000</v>
+      </c>
+      <c r="W361" s="22">
+        <v>1560000</v>
+      </c>
+      <c r="X361" s="22">
+        <v>1739400</v>
+      </c>
+    </row>
+    <row r="362" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A362" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B362" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E362" s="22">
+        <v>138000</v>
+      </c>
+      <c r="F362" s="22">
+        <v>158500</v>
+      </c>
+      <c r="G362" s="22">
+        <v>195000</v>
+      </c>
+      <c r="H362" s="22">
+        <v>285000</v>
+      </c>
+      <c r="I362" s="22">
+        <v>362000</v>
+      </c>
+      <c r="J362" s="22">
+        <v>362000</v>
+      </c>
+      <c r="K362" s="22">
+        <v>425000</v>
+      </c>
+      <c r="L362" s="22">
+        <v>482300</v>
+      </c>
+      <c r="M362" s="22">
+        <v>523698</v>
+      </c>
+      <c r="N362" s="22">
+        <v>634260</v>
+      </c>
+      <c r="O362" s="22">
+        <v>665973</v>
+      </c>
+      <c r="P362" s="22">
+        <v>765868</v>
+      </c>
+      <c r="Q362" s="22">
+        <v>873089</v>
+      </c>
+      <c r="R362" s="22">
+        <v>986590</v>
+      </c>
+      <c r="S362" s="22">
+        <v>1134580</v>
+      </c>
+      <c r="T362" s="22">
+        <v>1327459</v>
+      </c>
+      <c r="U362" s="22">
+        <v>1553127</v>
+      </c>
+      <c r="V362" s="22">
+        <v>1723970</v>
+      </c>
+      <c r="W362" s="22">
+        <v>1896367</v>
+      </c>
+      <c r="X362" s="22">
+        <v>2057558</v>
+      </c>
+    </row>
+    <row r="363" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A363" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B363" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E363" s="22">
+        <v>125000</v>
+      </c>
+      <c r="F363" s="22">
+        <v>144000</v>
+      </c>
+      <c r="G363" s="22">
+        <v>166000</v>
+      </c>
+      <c r="H363" s="22">
+        <v>200000</v>
+      </c>
+      <c r="I363" s="22">
+        <v>295000</v>
+      </c>
+      <c r="J363" s="22">
+        <v>377500</v>
+      </c>
+      <c r="K363" s="22">
+        <v>425000</v>
+      </c>
+      <c r="L363" s="22">
+        <v>482200</v>
+      </c>
+      <c r="M363" s="22">
+        <v>536300</v>
+      </c>
+      <c r="N363" s="22">
+        <v>629000</v>
+      </c>
+      <c r="O363" s="22">
+        <v>745000</v>
+      </c>
+      <c r="P363" s="22">
+        <v>825000</v>
+      </c>
+      <c r="Q363" s="22">
+        <v>930000</v>
+      </c>
+      <c r="R363" s="22">
+        <v>1024500</v>
+      </c>
+      <c r="S363" s="22">
+        <v>1126000</v>
+      </c>
+      <c r="T363" s="22">
+        <v>1225000</v>
+      </c>
+      <c r="U363" s="22">
+        <v>1337500</v>
+      </c>
+      <c r="V363" s="22">
+        <v>1620000</v>
+      </c>
+      <c r="W363" s="22">
+        <v>1870000</v>
+      </c>
+      <c r="X363" s="22">
+        <v>2085050</v>
+      </c>
+    </row>
+    <row r="364" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A364" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B364" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E364" s="22">
+        <v>153000</v>
+      </c>
+      <c r="F364" s="22">
+        <v>176000</v>
+      </c>
+      <c r="G364" s="22">
+        <v>194000</v>
+      </c>
+      <c r="H364" s="22">
+        <v>233000</v>
+      </c>
+      <c r="I364" s="22">
+        <v>300000</v>
+      </c>
+      <c r="J364" s="22">
+        <v>500000</v>
+      </c>
+      <c r="K364" s="22">
+        <v>540000</v>
+      </c>
+      <c r="L364" s="22">
+        <v>572700</v>
+      </c>
+      <c r="M364" s="22">
+        <v>600000</v>
+      </c>
+      <c r="N364" s="22">
+        <v>701640</v>
+      </c>
+      <c r="O364" s="22">
+        <v>766500</v>
+      </c>
+      <c r="P364" s="22">
+        <v>889654</v>
+      </c>
+      <c r="Q364" s="22">
+        <v>955000</v>
+      </c>
+      <c r="R364" s="22">
+        <v>1002000</v>
+      </c>
+      <c r="S364" s="22">
+        <v>1084000</v>
+      </c>
+      <c r="T364" s="22">
+        <v>1177000</v>
+      </c>
+      <c r="U364" s="22">
+        <v>1752073</v>
+      </c>
+      <c r="V364" s="22">
+        <v>1886315</v>
+      </c>
+      <c r="W364" s="22">
+        <v>2026126</v>
+      </c>
+      <c r="X364" s="22">
+        <v>2161253</v>
+      </c>
+    </row>
+    <row r="365" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A365" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B365" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E365" s="23"/>
+      <c r="F365" s="23"/>
+      <c r="G365" s="23"/>
+      <c r="H365" s="23"/>
+      <c r="I365" s="23"/>
+      <c r="J365" s="23"/>
+      <c r="K365" s="23"/>
+      <c r="L365" s="23"/>
+      <c r="M365" s="23"/>
+      <c r="N365" s="23"/>
+      <c r="O365" s="23"/>
+      <c r="P365" s="23"/>
+      <c r="Q365" s="23"/>
+      <c r="R365" s="23"/>
+      <c r="S365" s="23"/>
+      <c r="T365" s="23"/>
+      <c r="U365" s="23"/>
+      <c r="V365" s="23"/>
+      <c r="W365" s="22">
+        <v>2026126</v>
+      </c>
+      <c r="X365" s="22">
+        <v>2175340</v>
+      </c>
+    </row>
+    <row r="366" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A366" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B366" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E366" s="22">
+        <v>118000</v>
+      </c>
+      <c r="F366" s="22">
+        <v>135500</v>
+      </c>
+      <c r="G366" s="22">
+        <v>155000</v>
+      </c>
+      <c r="H366" s="22">
+        <v>186000</v>
+      </c>
+      <c r="I366" s="22">
+        <v>372000</v>
+      </c>
+      <c r="J366" s="22">
+        <v>438000</v>
+      </c>
+      <c r="K366" s="22">
+        <v>495000</v>
+      </c>
+      <c r="L366" s="22">
+        <v>545000</v>
+      </c>
+      <c r="M366" s="22">
+        <v>600000</v>
+      </c>
+      <c r="N366" s="22">
+        <v>713500</v>
+      </c>
+      <c r="O366" s="22">
+        <v>750000</v>
+      </c>
+      <c r="P366" s="22">
+        <v>845000</v>
+      </c>
+      <c r="Q366" s="22">
+        <v>929500</v>
+      </c>
+      <c r="R366" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="S366" s="22">
+        <v>1050000</v>
+      </c>
+      <c r="T366" s="22">
+        <v>1250000</v>
+      </c>
+      <c r="U366" s="22">
+        <v>1550000</v>
+      </c>
+      <c r="V366" s="22">
+        <v>1900000</v>
+      </c>
+      <c r="W366" s="22">
+        <v>2150000</v>
+      </c>
+      <c r="X366" s="22">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A367" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B367" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E367" s="22">
+        <v>106500</v>
+      </c>
+      <c r="F367" s="22">
+        <v>122500</v>
+      </c>
+      <c r="G367" s="22">
+        <v>150000</v>
+      </c>
+      <c r="H367" s="22">
+        <v>203000</v>
+      </c>
+      <c r="I367" s="22">
+        <v>245000</v>
+      </c>
+      <c r="J367" s="22">
+        <v>350000</v>
+      </c>
+      <c r="K367" s="22">
+        <v>410000</v>
+      </c>
+      <c r="L367" s="22">
+        <v>450000</v>
+      </c>
+      <c r="M367" s="22">
+        <v>490000</v>
+      </c>
+      <c r="N367" s="22">
+        <v>575000</v>
+      </c>
+      <c r="O367" s="22">
+        <v>615000</v>
+      </c>
+      <c r="P367" s="22">
+        <v>670000</v>
+      </c>
+      <c r="Q367" s="22">
+        <v>720000</v>
+      </c>
+      <c r="R367" s="22">
+        <v>777500</v>
+      </c>
+      <c r="S367" s="22">
+        <v>827500</v>
+      </c>
+      <c r="T367" s="22">
+        <v>885000</v>
+      </c>
+      <c r="U367" s="22">
+        <v>995000</v>
+      </c>
+      <c r="V367" s="22">
+        <v>1250000</v>
+      </c>
+      <c r="W367" s="22">
+        <v>1500000</v>
+      </c>
+      <c r="X367" s="22">
+        <v>1670000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A368" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B368" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E368" s="22">
+        <v>112500</v>
+      </c>
+      <c r="F368" s="22">
+        <v>129500</v>
+      </c>
+      <c r="G368" s="22">
+        <v>148000</v>
+      </c>
+      <c r="H368" s="22">
+        <v>200000</v>
+      </c>
+      <c r="I368" s="22">
+        <v>300000</v>
+      </c>
+      <c r="J368" s="22">
+        <v>375000</v>
+      </c>
+      <c r="K368" s="22">
+        <v>415000</v>
+      </c>
+      <c r="L368" s="22">
+        <v>455000</v>
+      </c>
+      <c r="M368" s="22">
+        <v>510000</v>
+      </c>
+      <c r="N368" s="22">
+        <v>612000</v>
+      </c>
+      <c r="O368" s="22">
+        <v>673200</v>
+      </c>
+      <c r="P368" s="22">
+        <v>740520</v>
+      </c>
+      <c r="Q368" s="22">
+        <v>905000</v>
+      </c>
+      <c r="R368" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="S368" s="22">
+        <v>1100000</v>
+      </c>
+      <c r="T368" s="22">
+        <v>1200000</v>
+      </c>
+      <c r="U368" s="22">
+        <v>1440000</v>
+      </c>
+      <c r="V368" s="22">
+        <v>1800000</v>
+      </c>
+      <c r="W368" s="22">
+        <v>2000000</v>
+      </c>
+      <c r="X368" s="22">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A369" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B369" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E369" s="22">
+        <v>121000</v>
+      </c>
+      <c r="F369" s="22">
+        <v>139000</v>
+      </c>
+      <c r="G369" s="22">
+        <v>160000</v>
+      </c>
+      <c r="H369" s="22">
+        <v>210000</v>
+      </c>
+      <c r="I369" s="22">
+        <v>275000</v>
+      </c>
+      <c r="J369" s="22">
+        <v>325000</v>
+      </c>
+      <c r="K369" s="22">
+        <v>390000</v>
+      </c>
+      <c r="L369" s="22">
+        <v>470000</v>
+      </c>
+      <c r="M369" s="22">
+        <v>498600</v>
+      </c>
+      <c r="N369" s="22">
+        <v>573400</v>
+      </c>
+      <c r="O369" s="22">
+        <v>640000</v>
+      </c>
+      <c r="P369" s="22">
+        <v>700000</v>
+      </c>
+      <c r="Q369" s="22">
+        <v>770000</v>
+      </c>
+      <c r="R369" s="22">
+        <v>860000</v>
+      </c>
+      <c r="S369" s="22">
+        <v>930000</v>
+      </c>
+      <c r="T369" s="22">
+        <v>1032300</v>
+      </c>
+      <c r="U369" s="22">
+        <v>1125207</v>
+      </c>
+      <c r="V369" s="22">
+        <v>1400000</v>
+      </c>
+      <c r="W369" s="22">
+        <v>1652000</v>
+      </c>
+      <c r="X369" s="22">
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A370" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B370" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E370" s="23"/>
+      <c r="F370" s="22">
+        <v>135500</v>
+      </c>
+      <c r="G370" s="22">
+        <v>155000</v>
+      </c>
+      <c r="H370" s="22">
+        <v>186000</v>
+      </c>
+      <c r="I370" s="22">
+        <v>372000</v>
+      </c>
+      <c r="J370" s="22">
+        <v>375000</v>
+      </c>
+      <c r="K370" s="22">
+        <v>410000</v>
+      </c>
+      <c r="L370" s="22">
+        <v>430000</v>
+      </c>
+      <c r="M370" s="22">
+        <v>435000</v>
+      </c>
+      <c r="N370" s="22">
+        <v>527000</v>
+      </c>
+      <c r="O370" s="22">
+        <v>560000</v>
+      </c>
+      <c r="P370" s="22">
+        <v>600000</v>
+      </c>
+      <c r="Q370" s="22">
+        <v>675000</v>
+      </c>
+      <c r="R370" s="22">
+        <v>710000</v>
+      </c>
+      <c r="S370" s="22">
+        <v>762500</v>
+      </c>
+      <c r="T370" s="22">
+        <v>837500</v>
+      </c>
+      <c r="U370" s="22">
+        <v>1175000</v>
+      </c>
+      <c r="V370" s="22">
+        <v>1325000</v>
+      </c>
+      <c r="W370" s="22">
+        <v>1600000</v>
+      </c>
+      <c r="X370" s="22">
+        <v>1875000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A371" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B371" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E371" s="23"/>
+      <c r="F371" s="23"/>
+      <c r="G371" s="23"/>
+      <c r="H371" s="23"/>
+      <c r="I371" s="23"/>
+      <c r="J371" s="23"/>
+      <c r="K371" s="23"/>
+      <c r="L371" s="23"/>
+      <c r="M371" s="23"/>
+      <c r="N371" s="22">
+        <v>612000</v>
+      </c>
+      <c r="O371" s="22">
+        <v>691464</v>
+      </c>
+      <c r="P371" s="22">
+        <v>760500</v>
+      </c>
+      <c r="Q371" s="22">
+        <v>909400</v>
+      </c>
+      <c r="R371" s="22">
+        <v>944200</v>
+      </c>
+      <c r="S371" s="22">
+        <v>1006000</v>
+      </c>
+      <c r="T371" s="22">
+        <v>1127000</v>
+      </c>
+      <c r="U371" s="22">
+        <v>1165000</v>
+      </c>
+      <c r="V371" s="22">
+        <v>1400000</v>
+      </c>
+      <c r="W371" s="22">
+        <v>1655500</v>
+      </c>
+      <c r="X371" s="22">
+        <v>1864000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A372" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B372" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E372" s="22">
+        <v>136000</v>
+      </c>
+      <c r="F372" s="22">
+        <v>156500</v>
+      </c>
+      <c r="G372" s="22">
+        <v>180000</v>
+      </c>
+      <c r="H372" s="22">
+        <v>180000</v>
+      </c>
+      <c r="I372" s="22">
+        <v>230000</v>
+      </c>
+      <c r="J372" s="22">
+        <v>285000</v>
+      </c>
+      <c r="K372" s="22">
+        <v>370000</v>
+      </c>
+      <c r="L372" s="22">
+        <v>450000</v>
+      </c>
+      <c r="M372" s="22">
+        <v>500000</v>
+      </c>
+      <c r="N372" s="22">
+        <v>575000</v>
+      </c>
+      <c r="O372" s="22">
+        <v>635000</v>
+      </c>
+      <c r="P372" s="22">
+        <v>700000</v>
+      </c>
+      <c r="Q372" s="22">
+        <v>775000</v>
+      </c>
+      <c r="R372" s="22">
+        <v>840000</v>
+      </c>
+      <c r="S372" s="22">
+        <v>900000</v>
+      </c>
+      <c r="T372" s="22">
+        <v>975000</v>
+      </c>
+      <c r="U372" s="22">
+        <v>1275000</v>
+      </c>
+      <c r="V372" s="22">
+        <v>1415000</v>
+      </c>
+      <c r="W372" s="22">
+        <v>1650000</v>
+      </c>
+      <c r="X372" s="22">
+        <v>1775000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A373" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B373" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E373" s="23"/>
+      <c r="F373" s="22">
+        <v>156500</v>
+      </c>
+      <c r="G373" s="22">
+        <v>180000</v>
+      </c>
+      <c r="H373" s="22">
+        <v>180000</v>
+      </c>
+      <c r="I373" s="22">
+        <v>230000</v>
+      </c>
+      <c r="J373" s="22">
+        <v>322000</v>
+      </c>
+      <c r="K373" s="22">
+        <v>370000</v>
+      </c>
+      <c r="L373" s="22">
+        <v>400000</v>
+      </c>
+      <c r="M373" s="22">
+        <v>440000</v>
+      </c>
+      <c r="N373" s="22">
+        <v>528000</v>
+      </c>
+      <c r="O373" s="22">
+        <v>660000</v>
+      </c>
+      <c r="P373" s="22">
+        <v>700000</v>
+      </c>
+      <c r="Q373" s="22">
+        <v>770000</v>
+      </c>
+      <c r="R373" s="22">
+        <v>847000</v>
+      </c>
+      <c r="S373" s="22">
+        <v>889350</v>
+      </c>
+      <c r="T373" s="22">
+        <v>960498</v>
+      </c>
+      <c r="U373" s="22">
+        <v>1200622</v>
+      </c>
+      <c r="V373" s="22">
+        <v>1440746</v>
+      </c>
+      <c r="W373" s="22">
+        <v>1577617</v>
+      </c>
+      <c r="X373" s="22">
+        <v>1681266</v>
+      </c>
+    </row>
+    <row r="374" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A374" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B374" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E374" s="23"/>
+      <c r="F374" s="23"/>
+      <c r="G374" s="23"/>
+      <c r="H374" s="23"/>
+      <c r="I374" s="23"/>
+      <c r="J374" s="23"/>
+      <c r="K374" s="23"/>
+      <c r="L374" s="23"/>
+      <c r="M374" s="23"/>
+      <c r="N374" s="22">
+        <v>822500</v>
+      </c>
+      <c r="O374" s="22">
+        <v>987000</v>
+      </c>
+      <c r="P374" s="22">
+        <v>1105500</v>
+      </c>
+      <c r="Q374" s="22">
+        <v>1180000</v>
+      </c>
+      <c r="R374" s="22">
+        <v>1210000</v>
+      </c>
+      <c r="S374" s="22">
+        <v>1410000</v>
+      </c>
+      <c r="T374" s="22">
+        <v>1450000</v>
+      </c>
+      <c r="U374" s="22">
+        <v>1720000</v>
+      </c>
+      <c r="V374" s="22">
+        <v>1870000</v>
+      </c>
+      <c r="W374" s="22">
+        <v>2015000</v>
+      </c>
+      <c r="X374" s="22">
+        <v>2237000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A375" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B375" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E375" s="22">
+        <v>170000</v>
+      </c>
+      <c r="F375" s="22">
+        <v>195500</v>
+      </c>
+      <c r="G375" s="22">
+        <v>225000</v>
+      </c>
+      <c r="H375" s="22">
+        <v>315000</v>
+      </c>
+      <c r="I375" s="22">
+        <v>400000</v>
+      </c>
+      <c r="J375" s="22">
+        <v>530000</v>
+      </c>
+      <c r="K375" s="22">
+        <v>600000</v>
+      </c>
+      <c r="L375" s="22">
+        <v>650000</v>
+      </c>
+      <c r="M375" s="22">
+        <v>700000</v>
+      </c>
+      <c r="N375" s="22">
+        <v>822500</v>
+      </c>
+      <c r="O375" s="22">
+        <v>987000</v>
+      </c>
+      <c r="P375" s="22">
+        <v>1105500</v>
+      </c>
+      <c r="Q375" s="22">
+        <v>1216100</v>
+      </c>
+      <c r="R375" s="22">
+        <v>1316500</v>
+      </c>
+      <c r="S375" s="22">
+        <v>1403000</v>
+      </c>
+      <c r="T375" s="22">
+        <v>1585000</v>
+      </c>
+      <c r="U375" s="22">
+        <v>1710000</v>
+      </c>
+      <c r="V375" s="22">
+        <v>2040000</v>
+      </c>
+      <c r="W375" s="22">
+        <v>2193000</v>
+      </c>
+      <c r="X375" s="22">
+        <v>2435000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>